--- a/Andrew-annotations/NWSA_Q2_2011.xlsx
+++ b/Andrew-annotations/NWSA_Q2_2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FBFB5F-E925-48F3-951A-882D3CA0480C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14365DCA-846E-4BF2-95F0-A393372CAE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:J39"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,22 +758,22 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
@@ -796,13 +796,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="216" x14ac:dyDescent="0.3">
@@ -857,10 +857,10 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -892,13 +892,13 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -924,13 +924,13 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -956,16 +956,16 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1052,10 +1052,10 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1084,10 +1084,10 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -1122,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>46</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1209,19 +1209,19 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
@@ -1340,13 +1340,13 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1372,16 +1372,16 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1401,16 +1401,16 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1529,19 +1529,19 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -1602,10 +1602,10 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1631,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -1750,22 +1750,22 @@
         <v>87</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1791,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1814,22 +1814,22 @@
         <v>92</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1913,13 +1913,13 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -1948,10 +1948,10 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>2</v>
